--- a/excel/Prueba programacion.xlsx
+++ b/excel/Prueba programacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Univalle\ProyectoSistemas\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F23E9B-B1AD-4A97-9C00-E1CCF732F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC37F6C-6D06-442B-BD6C-56C5518371B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D176F040-50D0-47CD-ACDB-1CE82AC8E7F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Sala Biblioteca</t>
-  </si>
-  <si>
-    <t>20 equipos</t>
   </si>
   <si>
     <t>PLAZAS BERMUDEZ ALVARO HERNAN</t>
@@ -540,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C0CE5-E808-4018-876F-7A4FD2887C32}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,8 +685,8 @@
       <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="s">
-        <v>40</v>
+      <c r="X2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -730,10 +727,10 @@
         <v>31</v>
       </c>
       <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
       </c>
       <c r="P3" t="s">
         <v>34</v>
@@ -756,8 +753,8 @@
       <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="X3" t="s">
-        <v>40</v>
+      <c r="X3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -765,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -774,10 +771,10 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -786,7 +783,7 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -798,10 +795,10 @@
         <v>6789</v>
       </c>
       <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
         <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
       </c>
       <c r="P4" t="s">
         <v>34</v>
@@ -824,8 +821,8 @@
       <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="X4" t="s">
-        <v>40</v>
+      <c r="X4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
